--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitter.MultipleOverlappingNested.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitter.MultipleOverlappingNested.verified.xlsx
@@ -21,10 +21,7 @@
     <x:t>Property</x:t>
   </x:si>
   <x:si>
-    <x:t>Custom1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Custom2</x:t>
+    <x:t>Nested Property</x:t>
   </x:si>
   <x:si>
     <x:t>the Property</x:t>
@@ -408,18 +405,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
